--- a/SABER/test_saber.xlsx
+++ b/SABER/test_saber.xlsx
@@ -1,13 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Y" sheetId="1" r:id="rId1"/>
+    <sheet name="ABCDt" sheetId="2" r:id="rId2"/>
+    <sheet name="Pi=Yeq" sheetId="3" r:id="rId3"/>
+    <sheet name="P=abcd" sheetId="4" r:id="rId4"/>
+    <sheet name="MTL_unit cell" sheetId="6" r:id="rId5"/>
+    <sheet name="MTL_R" sheetId="5" r:id="rId6"/>
+    <sheet name="ABCDz( , ,ii)" sheetId="7" r:id="rId7"/>
+    <sheet name="Zt( , ,ii)" sheetId="8" r:id="rId8"/>
+    <sheet name="Zd" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,8 +26,331 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="106">
+  <si>
+    <t>-2.19515256771926e+18 - 1.26944987149519e+18i</t>
+  </si>
+  <si>
+    <t>-7.19820965595043e+16 - 2.45756571190391e+16i</t>
+  </si>
+  <si>
+    <t>-374557.650918427 + 144326.646796912i</t>
+  </si>
+  <si>
+    <t>-1.43034461908164e+19 + 8.43401673122927e+18i</t>
+  </si>
+  <si>
+    <t>-2.74040707892295e+21 + 5.29448899726382e+20i</t>
+  </si>
+  <si>
+    <t>-7.72716931630641e+19 + 3.13928718332496e+19i</t>
+  </si>
+  <si>
+    <t>-7744165.78061716 + 11889736.1417973i</t>
+  </si>
+  <si>
+    <t>2.32788774617516e+18 + 2.36007481007173e+18i</t>
+  </si>
+  <si>
+    <t>-2.20365683322182e+18 - 1.27216017597193e+18i</t>
+  </si>
+  <si>
+    <t>-7.19820965595073e+16 - 2.45756571167448e+16i</t>
+  </si>
+  <si>
+    <t>-60097.6721254246 - 35039.4013084885i</t>
+  </si>
+  <si>
+    <t>-2.27563892978127e+18 - 1.29673583308864e+18i</t>
+  </si>
+  <si>
+    <t>2.28825108859390e+18 + 2.33279211486682e+18i</t>
+  </si>
+  <si>
+    <t>3.96366575735121e+16 + 2.72826952167979e+16i</t>
+  </si>
+  <si>
+    <t>-67177514.7894206 + 2327183.97037356i</t>
+  </si>
+  <si>
+    <t>-2.81767877208594e+21 + 5.60841771559629e+20i</t>
+  </si>
+  <si>
+    <t>-2.74653162151820e-11 + 2.98444829061767e-11i</t>
+  </si>
+  <si>
+    <t>-952.880632909140 + 1447.90273765943i</t>
+  </si>
+  <si>
+    <t>3.31330476707544e-19 - 1.89226575424508e-19i</t>
+  </si>
+  <si>
+    <t>4.23334129896936e-19 - 4.29601245897314e-19i</t>
+  </si>
+  <si>
+    <t>1.09538009056707e-09 - 8.01746073761610e-10i</t>
+  </si>
+  <si>
+    <t>40673.4632798485 - 41353.9541330804i</t>
+  </si>
+  <si>
+    <t>-2.45407977824858e-17 + 8.31583489079313e-18i</t>
+  </si>
+  <si>
+    <t>-1.66730863377914e-17 + 1.13625052881991e-17i</t>
+  </si>
+  <si>
+    <t>-0.000124378944747150 + 0.0136935042683035i</t>
+  </si>
+  <si>
+    <t>-339968.000000000 - 315392.000000000i</t>
+  </si>
+  <si>
+    <t>1.00333058399651 - 0.000711226506918272i</t>
+  </si>
+  <si>
+    <t>0.00476449604292905 - 0.00250607862963445i</t>
+  </si>
+  <si>
+    <t>9.67413862701505 + 11.5248310230672i</t>
+  </si>
+  <si>
+    <t>1296740467712.00 + 3475998786560.00i</t>
+  </si>
+  <si>
+    <t>827.456475637141 - 719.004358395046i</t>
+  </si>
+  <si>
+    <t>-0.999999999792516 + 1.27360435750031e-09i</t>
+  </si>
+  <si>
+    <t>0.000194933431807333 - 0.0136557610304367i</t>
+  </si>
+  <si>
+    <t>3.57025257057445e-05 - 3.51144561739030e-05i</t>
+  </si>
+  <si>
+    <t>6.15784927606266e-05 - 8.14032264715702e-06i</t>
+  </si>
+  <si>
+    <t>-8.07944068908536e-05 - 0.000306903948575048i</t>
+  </si>
+  <si>
+    <t>0.00449857596286201 - 0.0531568288374844i</t>
+  </si>
+  <si>
+    <t>-1.70950807593096e-06 - 1.04198096667463e-05i</t>
+  </si>
+  <si>
+    <t>-2.77522266048494e-05 + 1.52786287887877e-05i</t>
+  </si>
+  <si>
+    <t>-33163201918.8953 - 20471944775.6747i</t>
+  </si>
+  <si>
+    <t>-15059971216938.9 + 19258249988199.6i</t>
+  </si>
+  <si>
+    <t>26599647.1425194 - 56146709.0532511i</t>
+  </si>
+  <si>
+    <t>0.959446406764327 + 0.00000000000000i</t>
+  </si>
+  <si>
+    <t>1.12549405989160 + 0.00000000000000i</t>
+  </si>
+  <si>
+    <t>0.00000000000000 + 31.8996128485986i</t>
+  </si>
+  <si>
+    <t>265.745687972162 - 586.974925581818i</t>
+  </si>
+  <si>
+    <t>-10.7868878777493 - 4.66222319206007i</t>
+  </si>
+  <si>
+    <t>-52.7214604028521 - 23.6879882411901i</t>
+  </si>
+  <si>
+    <t>265.745687972161 - 586.974925581814i</t>
+  </si>
+  <si>
+    <t>-24896.6232074161 + 22097.2005868796i</t>
+  </si>
+  <si>
+    <t>0.00000000000000 + 0.0197455866493763i</t>
+  </si>
+  <si>
+    <t>0.00000000000000 - 0.0197455866493764i</t>
+  </si>
+  <si>
+    <t>0.959446406764333 + 0.00000000000000i</t>
+  </si>
+  <si>
+    <t>-10.7868878777494 - 4.66222319206010i</t>
+  </si>
+  <si>
+    <t>0.00000000000000 - 0.0197455866493763i</t>
+  </si>
+  <si>
+    <t>0.00000000000000 - 0.100324073965912i</t>
+  </si>
+  <si>
+    <t>1.12549405989159 + 0.00000000000000i</t>
+  </si>
+  <si>
+    <t>-23.4400816473411 - 10.4946090171049i</t>
+  </si>
+  <si>
+    <t>-116.515678561245 - 53.3213801124828i</t>
+  </si>
+  <si>
+    <t>598.190386508945 - 1260.06164624576i</t>
+  </si>
+  <si>
+    <t>-55532.0655717362 + 48614.1940351117i</t>
+  </si>
+  <si>
+    <t>895.824706301934 + 993.691470654919i</t>
+  </si>
+  <si>
+    <t>4411.58204372723 + 4984.96672730740i</t>
+  </si>
+  <si>
+    <t>-55532.0655717358 + 48614.1940351114i</t>
+  </si>
+  <si>
+    <t>3660842.77041677 - 1140306.20194559i</t>
+  </si>
+  <si>
+    <t>-0.184116664035109 + 0.463876522854809i</t>
+  </si>
+  <si>
+    <t>-0.935466448731655 + 2.12647941029826i</t>
+  </si>
+  <si>
+    <t>-23.4400816473410 - 10.4946090171049i</t>
+  </si>
+  <si>
+    <t>895.824706301938 + 993.691470654925i</t>
+  </si>
+  <si>
+    <t>-0.935466448731650 + 2.12647941029825i</t>
+  </si>
+  <si>
+    <t>-4.75295096882561 + 10.5340163051274i</t>
+  </si>
+  <si>
+    <t>-116.515678561244 - 53.3213801124824i</t>
+  </si>
+  <si>
+    <t>4411.58204372724 + 4984.96672730741i</t>
+  </si>
+  <si>
+    <t>-2.67486869815520e-08 - 4.01933509609299e-10i</t>
+  </si>
+  <si>
+    <t>-28218007.1836815 + 3699885.26197749i</t>
+  </si>
+  <si>
+    <t>-6.92772799287541e-13 - 2.66750941862063e-13i</t>
+  </si>
+  <si>
+    <t>-2.01454336608655e-09 - 2.59522009888355e-09i</t>
+  </si>
+  <si>
+    <t>0.00122482740812826 + 0.00209841592594462i</t>
+  </si>
+  <si>
+    <t>1599736387536.32 + 2011756602604.24i</t>
+  </si>
+  <si>
+    <t>2.72187114605354e-08 + 1.38494276387459e-07i</t>
+  </si>
+  <si>
+    <t>-0.000106903738924794 + 0.000276706022659143i</t>
+  </si>
+  <si>
+    <t>0.00236160085958379 - 0.00246114668356287i</t>
+  </si>
+  <si>
+    <t>-14986.0099365700 + 2502739.75686911i</t>
+  </si>
+  <si>
+    <t>441.113652397656 + 493.315152835962i</t>
+  </si>
+  <si>
+    <t>3580.63433381902 + 8945.88114772489i</t>
+  </si>
+  <si>
+    <t>10.5717283086322 - 80.5175153478583i</t>
+  </si>
+  <si>
+    <t>233470889127687 - 437040771399704i</t>
+  </si>
+  <si>
+    <t>17814897.2353656 + 2564722.40528076i</t>
+  </si>
+  <si>
+    <t>5387837.08669029 - 43983179.4032703i</t>
+  </si>
+  <si>
+    <t>15701969.6637897 - 14701420.4468907i</t>
+  </si>
+  <si>
+    <t>-7.55744217359528e+18 - 3.33886193131468e+19i</t>
+  </si>
+  <si>
+    <t>-4.90025156510001e+25 - 6.14197563163687e+26i</t>
+  </si>
+  <si>
+    <t>-1.50925590050105e+27 + 1.52507893542326e+26i</t>
+  </si>
+  <si>
+    <t>-1.66997177530098e-08 + 1.16098437037324e-08i</t>
+  </si>
+  <si>
+    <t>2481.68442889148 + 32083.0154667050i</t>
+  </si>
+  <si>
+    <t>-38073075525.1189 + 577920455197.608i</t>
+  </si>
+  <si>
+    <t>1424483936473.43 + 63705689126.1345i</t>
+  </si>
+  <si>
+    <t>-14813.2887044544 + 193448.790883242i</t>
+  </si>
+  <si>
+    <t>-1165792.26314646 + 2573001.92669780i</t>
+  </si>
+  <si>
+    <t>3.47616825887887e-09 + 3.62414520437014e-09i</t>
+  </si>
+  <si>
+    <t>1.13642444210376e-07 - 4.94213955752151e-07i</t>
+  </si>
+  <si>
+    <t>4.900251565100008e+25 + 6.141975631636869e+26i</t>
+  </si>
+  <si>
+    <t>0.0007 - 0.0287i  -0.0001 - 0.0000i  -0.0000 - 0.0002i   0.0001 + 0.0012i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -0.0001 - 0.0000i   0.0107 - 0.1121i  -0.0000 + 0.0000i  -0.0001 - 0.0001i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -0.0000 - 0.0002i  -0.0001 - 0.0000i   0.0007 - 0.0287i  -0.0001 - 0.0000i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.0001 + 0.0012i  -0.0001 - 0.0001i  -0.0001 - 0.0000i   0.0107 - 0.1121i</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +661,619 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="46" customWidth="1"/>
+    <col min="2" max="2" width="52.85546875" customWidth="1"/>
+    <col min="3" max="3" width="59" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" customWidth="1"/>
+    <col min="5" max="5" width="39.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22704112-344B-44FF-8600-C77F5BD5B887}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="46" customWidth="1"/>
+    <col min="2" max="2" width="41.140625" customWidth="1"/>
+    <col min="3" max="3" width="46.85546875" customWidth="1"/>
+    <col min="4" max="4" width="49.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AC69FD8-7269-462F-BA02-118321BFDDE3}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="51.5703125" customWidth="1"/>
+    <col min="2" max="2" width="53.85546875" customWidth="1"/>
+    <col min="3" max="3" width="52.7109375" customWidth="1"/>
+    <col min="4" max="4" width="44.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48D39F61-D558-4113-B5BA-575F2A26092A}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="50.42578125" customWidth="1"/>
+    <col min="2" max="2" width="52.42578125" customWidth="1"/>
+    <col min="3" max="3" width="75" customWidth="1"/>
+    <col min="4" max="4" width="69.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DB982A3-C98F-421B-9168-D824DC403DDF}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.85546875" customWidth="1"/>
+    <col min="2" max="2" width="54" customWidth="1"/>
+    <col min="3" max="3" width="55.5703125" customWidth="1"/>
+    <col min="4" max="4" width="52.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{010BCE8C-BFA5-4165-88D5-82F72B0CFDB6}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="52.5703125" customWidth="1"/>
+    <col min="2" max="2" width="52.85546875" customWidth="1"/>
+    <col min="3" max="3" width="56" customWidth="1"/>
+    <col min="4" max="4" width="68.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1588EE9-4834-44B6-AA12-56C8F198A235}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="85.7109375" customWidth="1"/>
+    <col min="2" max="2" width="71.140625" customWidth="1"/>
+    <col min="3" max="3" width="56.5703125" customWidth="1"/>
+    <col min="4" max="4" width="45.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3696497-8663-4AE2-AFB1-669036B1C179}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="63.42578125" customWidth="1"/>
+    <col min="2" max="2" width="74.42578125" customWidth="1"/>
+    <col min="3" max="3" width="70" customWidth="1"/>
+    <col min="4" max="4" width="59.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B0AC3AC-068C-4BFF-AD89-D6B632D2B2D6}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="80.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>